--- a/sprint 5/08.10.2021/03_Product_Backlog.xlsx
+++ b/sprint 5/08.10.2021/03_Product_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Documents\GitHub\Huella_Carbono\sprint 5\08.10.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1103C4E-46E3-4F6C-8861-902335E6A28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20FFC3F-4512-4C80-A31B-BBD579591BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D13067E4-98AA-4D02-BD79-AE235663521A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D13067E4-98AA-4D02-BD79-AE235663521A}"/>
   </bookViews>
   <sheets>
     <sheet name="Release Plan" sheetId="1" r:id="rId1"/>
@@ -766,29 +766,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="219">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="216">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -2895,7 +2873,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -4839,708 +4817,708 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:I6 E5:F6 E44:F45 E9:F10 E7:E8 H9:I10 A4:D10">
-    <cfRule type="expression" dxfId="218" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="248" stopIfTrue="1">
       <formula>$G4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="249" stopIfTrue="1">
       <formula>$G4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G16:G22 G9:G10 G43">
-    <cfRule type="expression" dxfId="216" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="250" stopIfTrue="1">
       <formula>$G4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="251" stopIfTrue="1">
       <formula>$G4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="252" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="252" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 F6 H16:I16 A43 H43 A16:F16 A17:A22 I17:I21 C17:F22 C43 E43:F43">
-    <cfRule type="expression" dxfId="213" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="253" stopIfTrue="1">
       <formula>OR($G4="Planned",$G4="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="254" stopIfTrue="1">
       <formula>$G4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="211" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="246" stopIfTrue="1">
       <formula>$G16="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="247" stopIfTrue="1">
       <formula>$G16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="209" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="244" stopIfTrue="1">
       <formula>$G16="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="245" stopIfTrue="1">
       <formula>$G16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D22">
-    <cfRule type="expression" dxfId="207" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="242" stopIfTrue="1">
       <formula>$G16="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="243" stopIfTrue="1">
       <formula>$G16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:I8 F7:F8">
-    <cfRule type="expression" dxfId="205" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="235" stopIfTrue="1">
       <formula>$G7="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="236" stopIfTrue="1">
       <formula>$G7="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="expression" dxfId="203" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="237" stopIfTrue="1">
       <formula>$G7="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="238" stopIfTrue="1">
       <formula>$G7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="239" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="239" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="expression" dxfId="200" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="240" stopIfTrue="1">
       <formula>OR($G7="Planned",$G7="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="241" stopIfTrue="1">
       <formula>$G7="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="198" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="230" stopIfTrue="1">
       <formula>$G23="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="231" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="232" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="232" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23 C23 E23:F23">
-    <cfRule type="expression" dxfId="195" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="233" stopIfTrue="1">
       <formula>OR($G23="Planned",$G23="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="234" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="193" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="219" stopIfTrue="1">
       <formula>$G24="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="220" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="221" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="221" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:F24">
-    <cfRule type="expression" dxfId="190" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="222" stopIfTrue="1">
       <formula>OR($G24="Planned",$G24="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="223" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="188" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="213" stopIfTrue="1">
       <formula>$G24="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="214" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="186" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="144" stopIfTrue="1">
       <formula>$G23="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="145" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="184" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="142" stopIfTrue="1">
       <formula>$G23="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="143" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B22">
-    <cfRule type="expression" dxfId="182" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="188" stopIfTrue="1">
       <formula>OR($G17="Planned",$G17="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="189" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B22">
-    <cfRule type="expression" dxfId="180" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="186" stopIfTrue="1">
       <formula>$G17="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="187" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B22">
-    <cfRule type="expression" dxfId="178" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="184" stopIfTrue="1">
       <formula>$G17="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="185" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H23">
-    <cfRule type="expression" dxfId="176" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="182" stopIfTrue="1">
       <formula>OR($G17="Planned",$G17="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="183" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H27">
-    <cfRule type="expression" dxfId="174" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="130" stopIfTrue="1">
       <formula>OR($G24="Planned",$G24="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="131" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B27">
-    <cfRule type="expression" dxfId="172" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="138" stopIfTrue="1">
       <formula>$G24="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="139" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="170" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="128" stopIfTrue="1">
       <formula>OR($G22="Planned",$G22="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="129" stopIfTrue="1">
       <formula>$G22="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G32">
-    <cfRule type="expression" dxfId="168" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="162" stopIfTrue="1">
       <formula>$G25="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="163" stopIfTrue="1">
       <formula>$G25="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="164" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="164" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A32 C25:F32">
-    <cfRule type="expression" dxfId="165" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="165" stopIfTrue="1">
       <formula>OR($G25="Planned",$G25="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="166" stopIfTrue="1">
       <formula>$G25="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D32">
-    <cfRule type="expression" dxfId="163" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="160" stopIfTrue="1">
       <formula>$G25="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="161" stopIfTrue="1">
       <formula>$G25="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="161" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="146" stopIfTrue="1">
       <formula>OR($G23="Planned",$G23="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="147" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H32">
-    <cfRule type="expression" dxfId="159" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="152" stopIfTrue="1">
       <formula>OR($G28="Planned",$G28="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="153" stopIfTrue="1">
       <formula>$G28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="157" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="150" stopIfTrue="1">
       <formula>OR($G23="Planned",$G23="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="151" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="155" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="148" stopIfTrue="1">
       <formula>$G23="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="149" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B27">
-    <cfRule type="expression" dxfId="153" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="136" stopIfTrue="1">
       <formula>$G24="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="137" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B27">
-    <cfRule type="expression" dxfId="151" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="140" stopIfTrue="1">
       <formula>OR($G24="Planned",$G24="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="141" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A27">
-    <cfRule type="expression" dxfId="149" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="134" stopIfTrue="1">
       <formula>OR($G24="Planned",$G24="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="135" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I32 I43">
-    <cfRule type="expression" dxfId="147" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="122" stopIfTrue="1">
       <formula>$C23="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="123" stopIfTrue="1">
       <formula>$C23="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="124" stopIfTrue="1">
       <formula>$C23="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="144" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="120" stopIfTrue="1">
       <formula>OR($G28="Planned",$G28="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="121" stopIfTrue="1">
       <formula>$G28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="142" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="118" stopIfTrue="1">
       <formula>$G28="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="119" stopIfTrue="1">
       <formula>$G28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="140" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="116" stopIfTrue="1">
       <formula>$G28="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="117" stopIfTrue="1">
       <formula>$G28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B32">
-    <cfRule type="expression" dxfId="138" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="114" stopIfTrue="1">
       <formula>OR($G29="Planned",$G29="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="115" stopIfTrue="1">
       <formula>$G29="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B32">
-    <cfRule type="expression" dxfId="136" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="112" stopIfTrue="1">
       <formula>$G29="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="113" stopIfTrue="1">
       <formula>$G29="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B32">
-    <cfRule type="expression" dxfId="134" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="110" stopIfTrue="1">
       <formula>$G29="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="111" stopIfTrue="1">
       <formula>$G29="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:G42">
-    <cfRule type="expression" dxfId="132" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="105" stopIfTrue="1">
       <formula>$G37="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="106" stopIfTrue="1">
       <formula>$G37="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="107" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42 C37:F42">
-    <cfRule type="expression" dxfId="129" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="108" stopIfTrue="1">
       <formula>OR($G37="Planned",$G37="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="109" stopIfTrue="1">
       <formula>$G37="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D42">
-    <cfRule type="expression" dxfId="127" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="103" stopIfTrue="1">
       <formula>$G37="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="104" stopIfTrue="1">
       <formula>$G37="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H42">
-    <cfRule type="expression" dxfId="125" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="101" stopIfTrue="1">
       <formula>OR($G37="Planned",$G37="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="102" stopIfTrue="1">
       <formula>$G37="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="expression" dxfId="123" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="96" stopIfTrue="1">
       <formula>OR($G37="Planned",$G37="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="97" stopIfTrue="1">
       <formula>$G37="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="expression" dxfId="121" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="94" stopIfTrue="1">
       <formula>$G37="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="95" stopIfTrue="1">
       <formula>$G37="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="expression" dxfId="119" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="92" stopIfTrue="1">
       <formula>$G37="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="93" stopIfTrue="1">
       <formula>$G37="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="117" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="87" stopIfTrue="1">
       <formula>$G33="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="88" stopIfTrue="1">
       <formula>$G33="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="89" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33 C33:F33">
-    <cfRule type="expression" dxfId="114" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="90" stopIfTrue="1">
       <formula>OR($G33="Planned",$G33="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="91" stopIfTrue="1">
       <formula>$G33="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="112" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="85" stopIfTrue="1">
       <formula>$G33="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="86" stopIfTrue="1">
       <formula>$G33="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="110" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="83" stopIfTrue="1">
       <formula>OR($G33="Planned",$G33="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="84" stopIfTrue="1">
       <formula>$G33="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="108" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="78" stopIfTrue="1">
       <formula>OR($G33="Planned",$G33="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="79" stopIfTrue="1">
       <formula>$G33="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="106" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="76" stopIfTrue="1">
       <formula>$G33="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="77" stopIfTrue="1">
       <formula>$G33="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="104" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="74" stopIfTrue="1">
       <formula>$G33="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="75" stopIfTrue="1">
       <formula>$G33="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="102" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="69" stopIfTrue="1">
       <formula>$G34="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="70" stopIfTrue="1">
       <formula>$G34="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="71" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34 C34:F34">
-    <cfRule type="expression" dxfId="99" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="72" stopIfTrue="1">
       <formula>OR($G34="Planned",$G34="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="73" stopIfTrue="1">
       <formula>$G34="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="97" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="67" stopIfTrue="1">
       <formula>$G34="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="68" stopIfTrue="1">
       <formula>$G34="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="95" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="65" stopIfTrue="1">
       <formula>OR($G34="Planned",$G34="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="66" stopIfTrue="1">
       <formula>$G34="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="93" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="60" stopIfTrue="1">
       <formula>OR($G34="Planned",$G34="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="61" stopIfTrue="1">
       <formula>$G34="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="91" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="58" stopIfTrue="1">
       <formula>$G34="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="59" stopIfTrue="1">
       <formula>$G34="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="89" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="56" stopIfTrue="1">
       <formula>$G34="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="57" stopIfTrue="1">
       <formula>$G34="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="87" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="51" stopIfTrue="1">
       <formula>$G35="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="52" stopIfTrue="1">
       <formula>$G35="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="53" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 C35:F35">
-    <cfRule type="expression" dxfId="84" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="54" stopIfTrue="1">
       <formula>OR($G35="Planned",$G35="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="55" stopIfTrue="1">
       <formula>$G35="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="82" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="49" stopIfTrue="1">
       <formula>$G35="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="50" stopIfTrue="1">
       <formula>$G35="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="80" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="47" stopIfTrue="1">
       <formula>OR($G35="Planned",$G35="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="48" stopIfTrue="1">
       <formula>$G35="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="78" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="42" stopIfTrue="1">
       <formula>OR($G35="Planned",$G35="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="43" stopIfTrue="1">
       <formula>$G35="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="76" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="40" stopIfTrue="1">
       <formula>$G35="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="41" stopIfTrue="1">
       <formula>$G35="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="74" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="38" stopIfTrue="1">
       <formula>$G35="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="39" stopIfTrue="1">
       <formula>$G35="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="expression" dxfId="72" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="33" stopIfTrue="1">
       <formula>$G36="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="34" stopIfTrue="1">
       <formula>$G36="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="35" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36 C36:F36">
-    <cfRule type="expression" dxfId="69" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="36" stopIfTrue="1">
       <formula>OR($G36="Planned",$G36="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="37" stopIfTrue="1">
       <formula>$G36="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="67" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="31" stopIfTrue="1">
       <formula>$G36="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="32" stopIfTrue="1">
       <formula>$G36="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="65" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="29" stopIfTrue="1">
       <formula>OR($G36="Planned",$G36="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="30" stopIfTrue="1">
       <formula>$G36="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="63" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="24" stopIfTrue="1">
       <formula>OR($G36="Planned",$G36="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="25" stopIfTrue="1">
       <formula>$G36="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="61" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="22" stopIfTrue="1">
       <formula>$G36="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="23" stopIfTrue="1">
       <formula>$G36="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="59" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="20" stopIfTrue="1">
       <formula>$G36="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="21" stopIfTrue="1">
       <formula>$G36="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I37 I41:I42">
-    <cfRule type="expression" dxfId="57" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="17" stopIfTrue="1">
       <formula>$C33="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="18" stopIfTrue="1">
       <formula>$C33="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="19" stopIfTrue="1">
       <formula>$C33="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="54" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="15" stopIfTrue="1">
       <formula>OR($G43="Planned",$G43="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="16" stopIfTrue="1">
       <formula>$G43="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="52" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="13" stopIfTrue="1">
       <formula>$G43="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="14" stopIfTrue="1">
       <formula>$G43="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="50" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="11" stopIfTrue="1">
       <formula>$G43="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="12" stopIfTrue="1">
       <formula>$G43="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="48" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="9" stopIfTrue="1">
       <formula>OR($G43="Planned",$G43="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="10" stopIfTrue="1">
       <formula>$G43="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="46" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="7" stopIfTrue="1">
       <formula>$G43="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="8" stopIfTrue="1">
       <formula>$G43="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I39">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="4" stopIfTrue="1">
       <formula>$C38="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="5" stopIfTrue="1">
       <formula>$C38="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="6" stopIfTrue="1">
       <formula>$C38="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
       <formula>$C40="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
       <formula>$C40="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="3" stopIfTrue="1">
       <formula>$C40="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5562,9 +5540,9 @@
   </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31:B33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6684,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="43">
         <v>1</v>
@@ -6713,7 +6691,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="43">
         <v>1</v>
@@ -6742,7 +6720,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="43">
         <v>1</v>
@@ -6771,7 +6749,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="43">
         <v>1</v>
@@ -6800,7 +6778,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="43">
         <v>1</v>
@@ -6829,7 +6807,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F31" s="43">
         <v>1</v>
@@ -6858,7 +6836,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F32" s="43">
         <v>1</v>
@@ -6887,7 +6865,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33" s="43">
         <v>1</v>
@@ -6908,134 +6886,134 @@
     <sortCondition ref="C5"/>
   </sortState>
   <conditionalFormatting sqref="A4:I4 C18:D20 A18:A27 A5:H15 C22:H22 C21 A17:D17 I8:I32 E17:F20 A16:F16 H16:H21 B23:H27 A34:H136 A28:H32">
-    <cfRule type="expression" dxfId="44" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="70" stopIfTrue="1">
       <formula>$C4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="71" stopIfTrue="1">
       <formula>$C4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="72" stopIfTrue="1">
       <formula>$C4="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="41" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="64" stopIfTrue="1">
       <formula>$C5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="65" stopIfTrue="1">
       <formula>$C5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="66" stopIfTrue="1">
       <formula>$C5="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
       <formula>$C6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="38" stopIfTrue="1">
       <formula>$C6="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
       <formula>$C6="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="34" stopIfTrue="1">
       <formula>$C7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="35" stopIfTrue="1">
       <formula>$C7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="36" stopIfTrue="1">
       <formula>$C7="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B20">
-    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="31" stopIfTrue="1">
       <formula>$C18="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="32" stopIfTrue="1">
       <formula>$C18="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="33" stopIfTrue="1">
       <formula>$C18="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="29" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="164" stopIfTrue="1">
       <formula>$C21="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="165" stopIfTrue="1">
       <formula>$C21="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="166" stopIfTrue="1">
       <formula>$C21="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
       <formula>$C21="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
       <formula>$C21="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
       <formula>$C21="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21 F21">
-    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="22" stopIfTrue="1">
       <formula>$C21="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
       <formula>$C21="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
       <formula>$C21="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="19" stopIfTrue="1">
       <formula>$C21="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="20" stopIfTrue="1">
       <formula>$C21="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
       <formula>$C21="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G21">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="16" stopIfTrue="1">
       <formula>$C16="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="17" stopIfTrue="1">
       <formula>$C16="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="18" stopIfTrue="1">
       <formula>$C16="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:G33 I33">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>$C33="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>$C33="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>$C33="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$C33="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$C33="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$C33="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
